--- a/biology/Botanique/Melastoma_malabathricum/Melastoma_malabathricum.xlsx
+++ b/biology/Botanique/Melastoma_malabathricum/Melastoma_malabathricum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rhododendron de Malabar ou Rhododendron de Singapour, Melastoma malabathricum est un arbuste du genre Melastoma, de la famille des Melastomatacées.
 </t>
@@ -511,12 +523,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melastoma malabathricum est originaire d'Asie tropicale, de Polynésie et d'Australie. L'espèce a été introduite comme plante ornementale à Hawaï en 1916[1].
-Son aire de répartition actuelle comprend de nombreux pays tropicaux et subtropicaux, notamment : Chine (Fujian, Guangdong, Guangxi, Guizhou, Hainan, Hunan, Jiangxi, Sichuan, Tibet, Yunnan, Zhejiang), Taïwan, Indonésie, Japon, Birmanie, Cambodge, Laos, Inde, Malaisie péninsulaire, Népal, Philippines, Thaïlande et Viêt Nam, Singapour, Nouvelle-Calédonie[2],[3].
-L'espèce est considérée comme une plante envahissante dans certaines régions, notamment aux États-Unis, où elle est classée comme « noxious weed » (mauvaise herbe nuisible)[4],[5].
-Cet arbuste se rencontre généralement entre 100 et 2800 m d'altitude, dans les champs et prairies, ainsi que dans les bosquets et forêts clairsemées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melastoma malabathricum est originaire d'Asie tropicale, de Polynésie et d'Australie. L'espèce a été introduite comme plante ornementale à Hawaï en 1916.
+Son aire de répartition actuelle comprend de nombreux pays tropicaux et subtropicaux, notamment : Chine (Fujian, Guangdong, Guangxi, Guizhou, Hainan, Hunan, Jiangxi, Sichuan, Tibet, Yunnan, Zhejiang), Taïwan, Indonésie, Japon, Birmanie, Cambodge, Laos, Inde, Malaisie péninsulaire, Népal, Philippines, Thaïlande et Viêt Nam, Singapour, Nouvelle-Calédonie,.
+L'espèce est considérée comme une plante envahissante dans certaines régions, notamment aux États-Unis, où elle est classée comme « noxious weed » (mauvaise herbe nuisible),.
+Cet arbuste se rencontre généralement entre 100 et 2800 m d'altitude, dans les champs et prairies, ainsi que dans les bosquets et forêts clairsemées.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Rhododendron de Singapour, Jardin botanique de la reine Sirikit, Thaïlande
